--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-common.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-common.xlsx
@@ -121,6 +121,32 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">P/T: 4/4
+Border: black
+Finish: normal
+Keywords:
+➤ Proliferate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>When this creature enters or dies, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 4 generic
+➤ 1 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">Border: black
 Finish: normal
 Keywords:
@@ -129,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">When this Equipment enters, create a Treasure token. (It's an artifact with "{T}, Sacrifice this token: Add one mana of any color.")
@@ -138,36 +164,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
-➤ 1 black</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">P/T: 4/4
-Border: black
-Finish: normal
-Keywords:
-➤ Proliferate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>When this creature enters or dies, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 4 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -255,8 +255,8 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">This land enters tapped.
-{T}: Add {W} or {U}.</t>
+          <t xml:space="preserve">({T}: Add {R} or {W}.)
+This land enters tapped.</t>
         </r>
       </text>
     </comment>
@@ -271,7 +271,8 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>{T}: Add one mana of any color in your commander's color identity.</t>
+          <t xml:space="preserve">This land enters tapped.
+{T}: Add {W} or {U}.</t>
         </r>
       </text>
     </comment>
@@ -286,12 +287,27 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
+          <t>{T}: Add one mana of any color in your commander's color identity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">This land enters tapped.
 {T}: Add {U} or {B}.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -301,27 +317,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">This land enters tapped.
 {T}: Add one mana of any color in your commander's color identity. When that mana is spent to cast a creature spell that shares a creature type with your commander, scry 1. (Look at the top card of your library. You may put that card on the bottom.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">({T}: Add {R} or {W}.)
-This land enters tapped.</t>
         </r>
       </text>
     </comment>
@@ -464,6 +464,27 @@
     <t>Commander (Common) - Black</t>
   </si>
   <si>
+    <t>Gulping Scraptrap</t>
+  </si>
+  <si>
+    <t>Creature — Phyrexian Horror</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>{4}{B}</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>Open Gulping Scraptrap</t>
+  </si>
+  <si>
     <t>Thieves' Tools</t>
   </si>
   <si>
@@ -485,31 +506,10 @@
     <t>{1}{B}</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>0.11</t>
   </si>
   <si>
     <t>Open Thieves' Tools</t>
-  </si>
-  <si>
-    <t>Gulping Scraptrap</t>
-  </si>
-  <si>
-    <t>Creature — Phyrexian Horror</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>{4}{B}</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>Open Gulping Scraptrap</t>
   </si>
   <si>
     <t>You Are Already Dead</t>
@@ -564,6 +564,33 @@
   </si>
   <si>
     <t>group-external</t>
+  </si>
+  <si>
+    <t>Alpine Meadow</t>
+  </si>
+  <si>
+    <t>Land - Snow</t>
+  </si>
+  <si>
+    <t>Snow Land — Mountain Plains</t>
+  </si>
+  <si>
+    <t>khm</t>
+  </si>
+  <si>
+    <t>Kaldheim</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>R, W</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>Open Alpine Meadow</t>
   </si>
   <si>
     <t>Azorius Guildgate</t>
@@ -640,33 +667,6 @@
   <si>
     <t>Open Path of Ancestry</t>
   </si>
-  <si>
-    <t>Alpine Meadow</t>
-  </si>
-  <si>
-    <t>Land - Snow</t>
-  </si>
-  <si>
-    <t>Snow Land — Mountain Plains</t>
-  </si>
-  <si>
-    <t>khm</t>
-  </si>
-  <si>
-    <t>Kaldheim</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>R, W</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>Open Alpine Meadow</t>
-  </si>
 </sst>
 </file>
 
@@ -722,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -761,34 +761,6 @@
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
       <top style="thin">
         <color rgb="FF8A6BB8"/>
       </top>
@@ -801,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,34 +798,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8025,42 +7985,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="L3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -8069,16 +8029,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>56</v>
@@ -8087,13 +8047,13 @@
         <v>57</v>
       </c>
       <c r="J4" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>58</v>
@@ -8103,46 +8063,46 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11493,46 +11453,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>0</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11547,19 +11507,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>73</v>
@@ -11571,62 +11531,62 @@
         <v>73</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>89</v>
+      <c r="M6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -11638,16 +11598,16 @@
         <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>73</v>
@@ -11659,100 +11619,100 @@
         <v>73</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="7" t="s">
         <v>111</v>
       </c>
     </row>
